--- a/Sprint2/Metodologia/Agenda - Controle de Execução.xlsx
+++ b/Sprint2/Metodologia/Agenda - Controle de Execução.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmsouza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmsouza\OneDrive - Grupo VR\Área de Trabalho\Raul SPTECH\Documentos-grupo9\Sprint2\Metodologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,6 +420,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,15 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -797,24 +797,24 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="J3" s="15" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -910,16 +910,16 @@
       <c r="K6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="P6" s="8" t="s">
@@ -936,14 +936,14 @@
       <c r="H7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="9"/>
@@ -958,14 +958,14 @@
       <c r="H8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="P8" s="9"/>
@@ -980,12 +980,12 @@
       <c r="H9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1046,16 +1046,16 @@
       <c r="K11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="P11" s="8" t="s">
@@ -1072,14 +1072,14 @@
       <c r="H12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="9"/>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P12" s="9"/>
@@ -1094,14 +1094,14 @@
       <c r="H13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="13" t="s">
         <v>38</v>
       </c>
       <c r="P13" s="9"/>
@@ -1116,12 +1116,12 @@
       <c r="H14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="20"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1176,19 +1176,19 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="8"/>
@@ -1202,17 +1202,17 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
@@ -1224,17 +1224,17 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="13"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
@@ -1246,17 +1246,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
@@ -1288,10 +1288,10 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -1303,10 +1303,10 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="9"/>
@@ -1316,10 +1316,10 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="9"/>
@@ -1329,8 +1329,8 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1363,16 +1363,16 @@
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -1382,14 +1382,14 @@
     <row r="27" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="9"/>
@@ -1397,14 +1397,14 @@
     <row r="28" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="9"/>
@@ -1412,12 +1412,12 @@
     <row r="29" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1501,17 +1501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d73c667-0e32-466c-9097-a1f484c201cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="110b98c3-9565-49b4-9c49-1e89583ef82c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0731E8D1374834C8E89AE093B47FB16" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="72dfc769d3a6c1654c9c567bacabe9b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d73c667-0e32-466c-9097-a1f484c201cc" xmlns:ns3="110b98c3-9565-49b4-9c49-1e89583ef82c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c5aecfe3d34393bd8732845e8a60629" ns2:_="" ns3:_="">
     <xsd:import namespace="8d73c667-0e32-466c-9097-a1f484c201cc"/>
@@ -1748,6 +1737,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8d73c667-0e32-466c-9097-a1f484c201cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="110b98c3-9565-49b4-9c49-1e89583ef82c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1758,23 +1758,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B180FB-06D7-4EF5-BA24-F3C4001DC91D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="110b98c3-9565-49b4-9c49-1e89583ef82c"/>
-    <ds:schemaRef ds:uri="8d73c667-0e32-466c-9097-a1f484c201cc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA821687-4905-47AB-9D45-B1C16AEBC1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1793,6 +1776,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B180FB-06D7-4EF5-BA24-F3C4001DC91D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="110b98c3-9565-49b4-9c49-1e89583ef82c"/>
+    <ds:schemaRef ds:uri="8d73c667-0e32-466c-9097-a1f484c201cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1EF972-DBE3-451D-B246-746C1F7D2CB7}">
   <ds:schemaRefs>
